--- a/output/data_barplot_mobility.xlsx
+++ b/output/data_barplot_mobility.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,16 +494,11 @@
           <t>Group</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Historic Group</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,7 +508,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,12 +518,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Average distance travelled by person | car</t>
+          <t>average distance travelled (inland+international)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -537,10 +532,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6731</v>
+        <v>12465.3</v>
       </c>
       <c r="I2" t="n">
-        <v>11890.63</v>
+        <v>16412.26</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -552,19 +547,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>inland</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>inland</t>
+          <t>Total (all modes, domestic+international)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fishman et al. (2021)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -574,7 +564,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>based on LED</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -584,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>average distance travelled per person | car</t>
+          <t>average distance travelled per capita and year (inland)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -598,10 +588,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8434.379999999999</v>
+        <v>13337.6</v>
       </c>
       <c r="I3" t="n">
-        <v>11890.63</v>
+        <v>16412.26</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -613,12 +603,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>inland</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>inland</t>
+          <t>domestic</t>
         </is>
       </c>
     </row>
@@ -645,12 +630,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Passenger km per capita on road</t>
+          <t>average distance travelled per capita and year (inland+international, without active modes)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | car</t>
+          <t>average distance travelled per capita and year</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -659,10 +644,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8852.49</v>
+        <v>13860.6</v>
       </c>
       <c r="I4" t="n">
-        <v>11890.63</v>
+        <v>16412.26</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -674,19 +659,14 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>inland</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>inland</t>
+          <t>Total (all modes, domestic+international)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -696,7 +676,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>DE path</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -706,7 +686,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year (inland)</t>
+          <t>average distance travelled per capita and year (inland+international)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,7 +700,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>13337.6</v>
+        <v>15186.03</v>
       </c>
       <c r="I5" t="n">
         <v>16412.26</v>
@@ -735,19 +715,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>inland</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>includes international</t>
+          <t>Total (all modes, domestic+international)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -757,7 +732,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -767,7 +742,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year (inland+international, without active modes)</t>
+          <t>average distance travelled per capita and year (inland + international)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -781,7 +756,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>13860.6</v>
+        <v>16019.03</v>
       </c>
       <c r="I6" t="n">
         <v>16412.26</v>
@@ -796,12 +771,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>without active</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>includes international</t>
+          <t>international</t>
         </is>
       </c>
     </row>
@@ -828,12 +798,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year (inland+international)</t>
+          <t>average distance travelled per capita and year | plane (inland)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -842,10 +812,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>15186.03</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>16412.26</v>
+        <v>2177.88</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -857,19 +827,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>includes international</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>includes international</t>
+          <t>domestic</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -889,12 +854,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year (inland + international)</t>
+          <t>average distance travelled per capita and year | plane (inland)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -903,10 +868,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16019.03</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>16412.26</v>
+        <v>2177.88</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -918,19 +883,14 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>includes international</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>includes international</t>
+          <t>domestic</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -940,7 +900,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -950,7 +910,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane (inland)</t>
+          <t>average distance travelled plane (inland+international)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -964,7 +924,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>700.55</v>
       </c>
       <c r="I9" t="n">
         <v>2177.88</v>
@@ -979,12 +939,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>inland</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>includes international</t>
+          <t>Total (domestic + international)</t>
         </is>
       </c>
     </row>
@@ -1040,19 +995,14 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>includes international</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>includes international</t>
+          <t>international</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1101,19 +1051,14 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>includes international</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>includes international</t>
+          <t>international</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UBA (2020)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1162,19 +1107,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>inland</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>inland</t>
+          <t>domestic</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1184,7 +1124,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1194,7 +1134,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>transported goods per capita and year (inland)</t>
+          <t>transported goods (inland+international)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1208,7 +1148,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8718.200000000001</v>
+        <v>8123.03</v>
       </c>
       <c r="I13" t="n">
         <v>8322.120000000001</v>
@@ -1223,12 +1163,63 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>inland</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>inland</t>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DE path</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Freight</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year (inland)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8718.200000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8322.120000000001</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>domestic</t>
         </is>
       </c>
     </row>

--- a/output/data_barplot_mobility.xlsx
+++ b/output/data_barplot_mobility.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>GreenSupreme</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>average distance travelled (inland+international)</t>
+          <t>average distance travelled per capita and year | plane (inland)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -532,14 +532,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12465.3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16412.26</v>
+        <v>645.48</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="K2" t="b">
@@ -547,7 +547,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Total (all modes, domestic+international)</t>
+          <t>domestic</t>
         </is>
       </c>
     </row>
@@ -574,12 +574,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year (inland)</t>
+          <t>average distance travelled per capita and year | plane (inland + international)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -588,14 +588,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13337.6</v>
+        <v>2681.43</v>
       </c>
       <c r="I3" t="n">
-        <v>16412.26</v>
+        <v>2809.29</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>UBA (2021)</t>
         </is>
       </c>
       <c r="K3" t="b">
@@ -603,24 +603,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>domestic</t>
+          <t>international</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>RTE (2021)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Sufficiency</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year (inland+international, without active modes)</t>
+          <t>Average distance travelled per person | plane (inland)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13860.6</v>
+        <v>67.75</v>
       </c>
       <c r="I4" t="n">
-        <v>16412.26</v>
+        <v>3019.91</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -659,24 +659,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Total (all modes, domestic+international)</t>
+          <t>domestic</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>négaWatt (2022)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>2050</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year (inland+international)</t>
+          <t>average distance travelled per capita and year | plane (inland+international)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15186.03</v>
+        <v>1200</v>
       </c>
       <c r="I5" t="n">
-        <v>16412.26</v>
+        <v>3019.91</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -715,24 +715,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Total (all modes, domestic+international)</t>
+          <t>Total (domestic + international)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>ADEME (2022)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>S1: Low production</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year (inland + international)</t>
+          <t>average distance travelled per capita and year | plane (inland + international)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>16019.03</v>
+        <v>1423.5</v>
       </c>
       <c r="I6" t="n">
-        <v>16412.26</v>
+        <v>3019.91</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>international</t>
+          <t>Total (domestic + international)</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>40.96</v>
       </c>
       <c r="I7" t="n">
-        <v>2177.88</v>
+        <v>2487.61</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -834,17 +834,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>négaWatt et al. (2023)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
+          <t>EU path</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane (inland)</t>
+          <t>average distance travelled per capita and year | plane (inland+international)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1486.31</v>
       </c>
       <c r="I8" t="n">
-        <v>2177.88</v>
+        <v>2487.61</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -883,24 +883,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>domestic</t>
+          <t>international</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Climact (2024)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
+          <t>Net Zero 2040</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>average distance travelled plane (inland+international)</t>
+          <t>average distance travelled | plane (inland+international)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>700.55</v>
+        <v>1520</v>
       </c>
       <c r="I9" t="n">
-        <v>2177.88</v>
+        <v>2487.61</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -946,17 +946,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EU28+CH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DE path</t>
+          <t>Life / Lever 4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane (inland+international)</t>
+          <t>average distance travelled plane (inland+international)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -980,14 +980,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1807.98</v>
+        <v>1169.33</v>
       </c>
       <c r="I10" t="n">
-        <v>2177.88</v>
+        <v>1219.17</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Costa et al. (2021) / EUCalc</t>
         </is>
       </c>
       <c r="K10" t="b">
@@ -995,34 +995,30 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>international</t>
+          <t>Total (domestic + international)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Grubler et al. (2018)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>average distance travelled per capita and year | plane (inland + international)</t>
+          <t>Passenger transport demand/capita | plane (inland + international)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1036,190 +1032,2044 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2681.43</v>
+        <v>1781.25</v>
       </c>
       <c r="I11" t="n">
-        <v>2177.88</v>
+        <v>3166.45</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
+          <t>Kuhnhenn et al. (2020)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>international</t>
+          <t>Total (domestic + international)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UBA (2021)</t>
+          <t>Kuhnhenn et al. (2020)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GreenSupreme</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
+          <t>STS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>transported goods per capita and year (inland)</t>
+          <t>average distance travelled per capita and year | plane (inland+international)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8122.17</v>
+        <v>580.52</v>
       </c>
       <c r="I12" t="n">
-        <v>8322.120000000001</v>
+        <v>3166.45</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
+          <t>Kuhnhenn et al. (2020)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>domestic</t>
+          <t>Total (domestic + international)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Costa et al. (2021) / EUCalc</t>
+          <t>Grubler et al. (2018)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Life / Lever 4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>transported goods (inland+international)</t>
+          <t>Passenger transport demand/capita | plane (inland + international)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>transported goods per capita and year</t>
+          <t>average distance travelled per capita and year | plane</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>tkm/cap/year</t>
+          <t>pkm/cap/year</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8123.03</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8322.120000000001</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
+        <v>292.11</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Total (all modes, domestic+international)</t>
+          <t>Total (domestic + international)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>négaWatt et al. (2023)</t>
+          <t>Grubler et al. (2018)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Passenger transport demand/capita | plane (inland + international)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year | plane</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>551.09</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1056.32</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>IEA WEO (2022)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Total (domestic + international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IEA WEO (2022)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NZE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year | plane (inland+international)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year | plane</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1614.73</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1056.32</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>IEA WEO (2022)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Total (domestic + international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DE path</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>13337.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16412.26</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland + international)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>16019.03</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16412.26</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>international</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ADEME (2022)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>S1: Low production</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10672</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18101.66</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ADEME (2022)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>S1: Low production</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland + international)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>12081.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18101.66</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>international</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RTE (2021)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Sufficiency</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>13550</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18101.66</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>négaWatt (2022)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland+international)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>14500</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18101.66</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Gaur et al. (2022)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ILED</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (without flights)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>12000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15342</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Gaur et al. (2022)</t>
+        </is>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Climact (2024)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Net Zero 2040</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>average distance travelled (inland, active, without flights)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14915.22</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Climact (2024)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Net Zero 2040</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland, without flights, without active modes)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10700</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14915.22</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>van de Ven et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Enthusiastic profile</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>11829.32</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14915.22</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland+international, without active modes)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>12990.49</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14915.22</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Climact (2024)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Net Zero 2040</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>average distance travelled (inland+international, with flights)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>13052.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14915.22</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland+international)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>13803.44</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14915.22</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Climact (2018)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EU28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>demand</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland+international, without active modes)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10450.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>15384.99</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Costa et al. (2021) / EUCalc</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EU28+CH</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Life / Lever 4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>average distance travelled (inland+international)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>12670.32</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13195.48</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Costa et al. (2021) / EUCalc</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland+international, without active modes)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>15625</v>
+      </c>
+      <c r="I31" t="n">
+        <v>13727.17</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>without active</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kuhnhenn et al. (2020)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>STS</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year total</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10297.69</v>
+      </c>
+      <c r="I32" t="n">
+        <v>13727.17</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Millward-Hopkins et al. (2020)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>WD-DLS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>decent living standard</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland+international)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Millward-Hopkins et al. (2020)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland+international, without active modes)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9605.26</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5355.78</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>without active</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland, without flights, without active modes)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10652</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6777.73</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>without active</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year (inland+international, without active modes)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>average distance travelled per capita and year</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>pkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>11203.09</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6777.73</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>without active</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>UBA (2021)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GreenSupreme</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Freight</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>transported goods per capita and year (inland)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>transported goods per capita and year</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>tkm/cap/year</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>8718.200000000001</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H37" t="n">
+        <v>8122.17</v>
+      </c>
+      <c r="I37" t="n">
         <v>8322.120000000001</v>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>négaWatt et al. (2023)</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ADEME (2022)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>S1: Low production</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Freight</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Transported goods per capita and year (inland)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2533</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5091.46</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>RTE (2021)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sufficiency</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year (inland)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5434.78</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5091.46</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Gaur et al. (2022)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>IE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ILED</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Freight</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year (inland)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1525</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2900.63</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Climact (2024)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Net Zero 2040</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Freight</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>transported goods per capity and year (inland) (without flights)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3809.48</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5667.85</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>EU path</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Freight</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year (inland)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5291.85</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5667.85</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Climact (2024)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>EU27</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Net Zero 2040</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Freight</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>transported goods per capity and year (inland+international)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>27589.37</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5667.85</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>international</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Climact (2018)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>EU28</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>demand</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Freight</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year (inland) Marine domestic, Inland waterways, freight rail, heavy and medium trucks</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5387.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5373.61</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>négaWatt et al. (2023)</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Costa et al. (2021) / EUCalc</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>EU28+CH</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Life / Lever 4</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Freight</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>transported goods (inland)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5411.16</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7217.52</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Costa et al. (2021) / EUCalc</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>domestic</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kuhnhenn et al. (2020)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>STS</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year (inland+international)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3731.85</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Millward-Hopkins et al. (2020)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>WD-DLS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>decent living standard</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year (inland+international)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2295</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year (inland+international)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8913.040000000001</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5637.43</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Grubler et al. (2018)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>IEA WEO (2022)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>WD</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NZE</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year (inland+international) (without flights)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>transported goods per capita and year</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>tkm/cap/year</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>36217.71</v>
+      </c>
+      <c r="I49" t="n">
+        <v>17329.74</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>IEA WEO (2022)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Total (all modes, domestic+international)</t>
         </is>
       </c>
     </row>
